--- a/VisionModel/output/predicted_trajectoriesZ0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.786456083051</v>
+        <v>1554.359380824244</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1759.030168878929</v>
+        <v>2005.105169756474</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2441.858247244787</v>
+        <v>2523.232787144853</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>2709.551623087721</v>
+        <v>2788.772826141984</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>3027.536065326986</v>
+        <v>3079.659038269087</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>3035.005367302621</v>
+        <v>3296.728314284335</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>3289.120455286299</v>
+        <v>3521.459651329038</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>3488.956365245102</v>
+        <v>3709.498940577651</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>3667.662787048637</v>
+        <v>3933.15926532961</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>3810.302282395129</v>
+        <v>4027.577236152459</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>3945.851135620131</v>
+        <v>4194.453486219991</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>4065.91031888295</v>
+        <v>4264.331556590987</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>4149.516475492816</v>
+        <v>4374.067528604009</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>4271.318079960784</v>
+        <v>4487.385843203305</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>4353.910505735893</v>
+        <v>4576.628211015293</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>4412.143949288422</v>
+        <v>4626.525892366498</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>4453.435085746391</v>
+        <v>4665.233919472924</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>4478.041822208975</v>
+        <v>4695.277210699368</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>4513.178868348417</v>
+        <v>4743.863204282354</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>4554.405228078955</v>
+        <v>4755.222104715553</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>4568.825700381577</v>
+        <v>4773.863366161764</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>4557.977346919483</v>
+        <v>4764.742751547747</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>4551.720188604382</v>
+        <v>4779.311739273581</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>4544.132859855219</v>
+        <v>4755.846064415698</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>4525.707475748725</v>
+        <v>4708.867678279513</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>4498.643761320025</v>
+        <v>4682.215453613936</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>4446.468659600865</v>
+        <v>4652.618428692093</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>4398.080625098353</v>
+        <v>4599.074200781597</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>4341.318276143626</v>
+        <v>4537.17695691405</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>4288.293899317357</v>
+        <v>4488.640088597283</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>4245.186701140079</v>
+        <v>4420.682544029601</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>4173.134434076333</v>
+        <v>4391.841064129753</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>4109.702473494878</v>
+        <v>4300.46656922658</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>4018.91036364878</v>
+        <v>4187.720798297653</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>3933.215485906376</v>
+        <v>4104.633814792059</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>3813.318986376853</v>
+        <v>4008.160257769249</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>3657.997460490561</v>
+        <v>3835.890485365039</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>3571.062475692004</v>
+        <v>3775.843548412584</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>3472.175735287664</v>
+        <v>3652.012726918672</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>3355.468961430233</v>
+        <v>3541.271316119653</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>3273.894397744859</v>
+        <v>3465.212594074099</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>3185.682304349405</v>
+        <v>3357.511238168855</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>3012.692431158898</v>
+        <v>3208.694170771299</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>2901.331276807291</v>
+        <v>3122.890725073222</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>2940.059550440687</v>
+        <v>3020.4286909934</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>2744.265531781939</v>
+        <v>2907.454447358568</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>2558.060657077844</v>
+        <v>2722.580345836597</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>2422.878375583463</v>
+        <v>2643.834802528551</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>2304.097452282555</v>
+        <v>2490.081011636917</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>2071.462333944816</v>
+        <v>2279.523451392301</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>1715.795490753561</v>
+        <v>1919.020804917689</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>1375.948176039995</v>
+        <v>1644.7244712366</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>1388.030244135145</v>
+        <v>1575.406007724059</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>1383.500017216987</v>
+        <v>1546.550633036336</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>1107.772404773709</v>
+        <v>1277.343174404287</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>958.4084343060682</v>
+        <v>1116.674075305931</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>873.8756959111633</v>
+        <v>1002.166736952312</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>844.1395729680729</v>
+        <v>973.3299723037687</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>836.7799803506798</v>
+        <v>964.452203373652</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>833.3034981372679</v>
+        <v>960.9871111218379</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>830.2275125705446</v>
+        <v>957.1438016332409</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesZ0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1554.359380824244</v>
+        <v>1378.98894257555</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2005.105169756474</v>
+        <v>1824.012946008359</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2523.232787144853</v>
+        <v>2261.361683477984</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>2788.772826141984</v>
+        <v>2734.894384922172</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>3079.659038269087</v>
+        <v>3138.72843865085</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>3296.728314284335</v>
+        <v>3221.372219969964</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>3521.459651329038</v>
+        <v>3435.668064787017</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>3709.498940577651</v>
+        <v>3563.320758137213</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>3933.15926532961</v>
+        <v>3784.01931899895</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>4027.577236152459</v>
+        <v>3918.280102258143</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>4194.453486219991</v>
+        <v>4044.368272677009</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>4264.331556590987</v>
+        <v>4181.71705606111</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>4374.067528604009</v>
+        <v>4258.991484663136</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>4487.385843203305</v>
+        <v>4366.326199333155</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>4576.628211015293</v>
+        <v>4418.783357305564</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>4626.525892366498</v>
+        <v>4522.954156992219</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>4665.233919472924</v>
+        <v>4549.649989672791</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>4695.277210699368</v>
+        <v>4576.360328042001</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>4743.863204282354</v>
+        <v>4627.261578260298</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>4755.222104715553</v>
+        <v>4634.10746737402</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>4773.863366161764</v>
+        <v>4668.328395554517</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>4764.742751547747</v>
+        <v>4651.391857517373</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>4779.311739273581</v>
+        <v>4652.667294079483</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>4755.846064415698</v>
+        <v>4640.685488817128</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>4708.867678279513</v>
+        <v>4616.307397768557</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>4682.215453613936</v>
+        <v>4568.980455365257</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>4652.618428692093</v>
+        <v>4511.688148036834</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>4599.074200781597</v>
+        <v>4470.798258772613</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>4537.17695691405</v>
+        <v>4422.922476553295</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>4488.640088597283</v>
+        <v>4352.386711579516</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>4420.682544029601</v>
+        <v>4306.678444237267</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>4391.841064129753</v>
+        <v>4247.147152509612</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>4300.46656922658</v>
+        <v>4148.517981610437</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>4187.720798297653</v>
+        <v>4075.040902889667</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>4104.633814792059</v>
+        <v>3972.652728562359</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>4008.160257769249</v>
+        <v>3916.117878662214</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>3835.890485365039</v>
+        <v>3800.484964768681</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>3775.843548412584</v>
+        <v>3691.025746438188</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>3652.012726918672</v>
+        <v>3585.448713558844</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>3541.271316119653</v>
+        <v>3501.732628776179</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>3465.212594074099</v>
+        <v>3326.428267445979</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>3357.511238168855</v>
+        <v>3201.689281562613</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>3208.694170771299</v>
+        <v>3063.171019903505</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>3122.890725073222</v>
+        <v>2965.046458180914</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>3020.4286909934</v>
+        <v>2933.17071835558</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>2907.454447358568</v>
+        <v>2829.794468065788</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>2722.580345836597</v>
+        <v>2646.460991591533</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>2643.834802528551</v>
+        <v>2494.669511529986</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>2490.081011636917</v>
+        <v>2340.907175172379</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>2279.523451392301</v>
+        <v>2241.671840041132</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>1919.020804917689</v>
+        <v>2063.436213330111</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>1644.7244712366</v>
+        <v>1826.080387561454</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>1575.406007724059</v>
+        <v>1675.26645715361</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>1546.550633036336</v>
+        <v>1539.850758386492</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>1277.343174404287</v>
+        <v>1454.219119239909</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1116.674075305931</v>
+        <v>1245.247695009602</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>1002.166736952312</v>
+        <v>1148.673334318132</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>973.3299723037687</v>
+        <v>1066.238904734081</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>964.452203373652</v>
+        <v>1044.486566158677</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>960.9871111218379</v>
+        <v>1020.815138994861</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>957.1438016332409</v>
+        <v>992.3528348118001</v>
       </c>
     </row>
   </sheetData>
